--- a/excel/12.xlsx
+++ b/excel/12.xlsx
@@ -832,7 +832,11 @@
           <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>海洋环境学赵艳云 (12-17周) 环境工程2020-1-4</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -891,7 +895,11 @@
           <t>环境工程专业导论刘音 (12-19周) 环境工程2021-3-4</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>采矿学冯帆 (12-13周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>弹性力学基础蒋邦友 (9-16周) 采矿工程（智能开采方向）2019-1</t>
@@ -944,11 +952,15 @@
           <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>电子商务杨磊 (8-15周) 临班677</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>安全工程专业导论刘义鑫 (12-19周) 安全工程2021-2</t>
+          <t>安全工程专业导论贺正龙 (12-19周) 安全工程2021-2</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1229,7 +1241,11 @@
           <t>结构力学杜烨 (1-12周) 交通工程2019-1-2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>控制工程基础王向华 (9-16双周) 采矿工程（智能开采方向）2019-1-2</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>采矿工程导论樊克恭 (12-19周) 采矿工程2021-1-2</t>
@@ -1615,7 +1631,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1704,7 +1720,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1781,7 +1797,11 @@
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>采矿学冯帆 (12-13周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>轨道交通运营张嘉敏 (7-14周) 交通运输2019-1-2</t>
@@ -2022,7 +2042,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2068,7 +2088,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2469,11 +2489,7 @@
           <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>海洋环境学赵艳云 (12-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
           <t>电工电子技术（B）马进 (11-18周) 高分子材料与工程2020-1-3</t>
@@ -3135,7 +3151,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3153,7 +3169,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3622,11 +3638,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
@@ -3701,7 +3713,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>当代中国经济专题*孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
+          <t>当代中国经济专题*李丽丽,孟文强,孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3957,7 +3969,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -4046,7 +4058,7 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -4109,7 +4121,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4185,7 +4197,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4211,7 +4223,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4229,7 +4241,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -4315,11 +4327,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -4388,7 +4396,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4418,7 +4426,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4456,7 +4464,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -5859,11 +5867,7 @@
           <t>数字摄影测量学解斐斐,刘健辰 (12-19周) 测绘工程2019-1-3</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>采矿学冯帆 (12-13周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
           <t>遥感数字图像处理孔冬贤 (3-13周) 地理信息科学2019-3</t>
@@ -6024,7 +6028,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6032,11 +6036,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6727,7 +6727,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6743,12 +6743,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -7887,11 +7887,7 @@
           <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
@@ -8670,7 +8666,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -8692,14 +8688,10 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
@@ -8721,11 +8713,7 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr">
         <is>
           <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
@@ -8759,7 +8747,11 @@
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
@@ -8787,9 +8779,17 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>

--- a/excel/12.xlsx
+++ b/excel/12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK87"/>
+  <dimension ref="A1:AK86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -813,14 +813,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -829,7 +829,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -842,7 +842,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
+          <t>结构设计原理孙宗军 (11-15周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -970,7 +970,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
+          <t>结构设计原理孙宗军 (11-15周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-19周) 物流管理2020-1-2</t>
+          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1045,10 +1045,14 @@
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>金属塑性成形原理刘杰 (12周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-19周) 物流管理2020-1-2</t>
+          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1065,7 +1069,7 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1075,19 +1079,19 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1140,7 +1144,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1164,7 +1168,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1196,7 +1200,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr"/>
@@ -1246,11 +1250,7 @@
           <t>控制工程基础王向华 (9-16双周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>采矿工程导论樊克恭 (12-19周) 采矿工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>采煤概论尹延春 (12-14周) 工程力学2018-1-3</t>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
+          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1358,14 +1358,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
+          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1378,7 +1378,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
+          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1406,27 +1406,31 @@
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
           <t>金融市场学*闻德美 (10-18周) 金融学2019-1-2</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)吴翠 (12周) 资源勘查工程2021-3</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)吴翠 (12周) 资源勘查工程2021-3</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1442,12 +1446,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1503,7 +1507,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>弹性力学基础陈军涛 (9-12周) 采矿工程2019-3-4</t>
+          <t>弹性力学基础刘学生 (9-12周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1527,7 +1531,11 @@
           <t>机械工程控制基础江守波 (9-15周) 机械电子工程2019-1-2</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>互换性与机械制造基础王素玉 (8-17周) 工业工程2019-1-2</t>
@@ -1680,7 +1688,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+          <t>线性代数段华 (12周) 软件工程2021-[1-3]班,采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1700,12 +1708,12 @@
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>现代物流学于灏 (12周) 物流管理2021-1-2</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>软件工程谢俊 (12-13周) 资源勘查工程2019-1-3</t>
@@ -1865,7 +1873,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1882,7 +1890,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1900,7 +1908,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1912,17 +1920,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-19周) 材料化学2018-1-2</t>
+          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1933,7 +1941,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1950,15 +1958,19 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr"/>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>会计学(B)刘英姿 (12周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr">
@@ -1973,12 +1985,12 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (12-19周) 工商管理辅修 2020版</t>
+          <t>会计学(B)刘英姿 (12-16,18周) 工商管理辅修 2020版</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (12-19周) 工商管理辅修 2020版</t>
+          <t>会计学(B)刘英姿 (12-16,18周) 工商管理辅修 2020版</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr"/>
@@ -2004,7 +2016,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2024,7 +2036,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2032,7 +2044,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2119,7 +2131,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2184,7 +2196,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2192,7 +2204,11 @@
           <t>大数据与机器学习刘洪强 (11-19周) 地理信息科学2018-1-3</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>破碎磨矿李琳 (12周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -2214,7 +2230,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
@@ -2439,7 +2459,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-19周) 高分子材料与工程2021-1-3</t>
+          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2473,7 +2493,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-19周) 高分子材料与工程2021-1-3</t>
+          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2489,7 +2509,11 @@
           <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>线性代数段华 (12周) 软件工程2021-[1-3]班,采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr">
         <is>
           <t>电工电子技术（B）马进 (11-18周) 高分子材料与工程2020-1-3</t>
@@ -2522,7 +2546,11 @@
           <t>大数据与机器学习刘洪强 (11-19周) 地理信息科学2018-1-3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>制图基础（A）戚美 (9-15周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -2536,7 +2564,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2666,7 +2694,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>计算机程序设计（C语言）张涛 (7-14周) 资源勘查工程2020-1-3</t>
+          <t>计算机程序设计（C语言）张涛 (7-10,12-14周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -2731,7 +2759,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2743,13 +2771,13 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2780,11 +2808,7 @@
           <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>形势与政策（4-1）张洋 (9-12周) 化学工程与工艺2021-1-3</t>
@@ -2831,7 +2855,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械吴蓬 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2933,11 +2957,7 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>机械制造技术基础杨俊茹 (8-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
@@ -2952,7 +2972,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>普通化学（B）唐尧基 (12-19周) 机械设计制造及其自动化2021-2</t>
+          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2962,12 +2982,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2975,7 +2995,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2992,7 +3012,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -3020,7 +3040,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3037,12 +3057,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-19周) 材料化学2018-1-2</t>
+          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -3056,7 +3076,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3067,7 +3087,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3085,7 +3105,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>财政学(A)陈昕 (12-19周) 金融学2020-1-2</t>
+          <t>财政学(A)陈昕 (12-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
@@ -3106,22 +3126,22 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr"/>
@@ -3182,7 +3202,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -3214,21 +3234,37 @@
           <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-1-2</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>空间数据库张蕾 (12周) 地理信息科学2020-3</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>弹性力学基础刘学生 (10-13周) 采矿工程2019-3-4</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>运筹学（B）李洪伟 (12周) 工商管理2019-1</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>材料力学性能李敏 (12双周) 金属材料工程2019-1-2</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>零件失效分析李敏 (11-18周) 金属材料工程2018-1-3</t>
+          <t>零件失效分析李敏 (11-12,14-18周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3261,7 +3297,11 @@
           <t>零件失效分析李敏 (11-18周) 金属材料工程2018-1-3</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>政府及非营利组织会计崔树德 (11-12周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr">
         <is>
           <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
@@ -3301,7 +3341,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-19周) 机械设计制造及其自动化2021-3-4</t>
+          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -3413,7 +3453,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3425,7 +3465,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3435,12 +3475,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>生物工程学科前沿王博 (12-19周) 生物工程2020-1-2</t>
+          <t>生物工程学科前沿王博 (12-18周) 生物工程2020-1-2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -3451,7 +3491,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3508,11 +3548,7 @@
           <t>计算机程序设计（C语言）张涛 (12-14周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
@@ -3527,7 +3563,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3555,11 +3591,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
@@ -3574,12 +3606,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>工程地质学基础张伟杰 (8-16周) 地质工程2019-1</t>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr"/>
@@ -3632,7 +3664,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
+          <t>数据库原理与应用朱红春 (12,14-16周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -3708,7 +3740,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3738,7 +3770,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3750,7 +3782,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>文献检索与论文写作刘露 (11-19周) 物流管理2019-1-2</t>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3797,7 +3829,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
@@ -3834,7 +3866,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>机械工程控制基础陈毕胜 (10-18周) 机械电子工程(留学生)2019</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3868,7 +3900,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>工程力学姜兰越,李晓宇 (12-19周) 能源与动力工程2020-1-3</t>
+          <t>工程力学姜兰越,李晓宇 (12-18周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -4018,7 +4050,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4040,7 +4072,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4063,7 +4095,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
@@ -4116,7 +4148,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
+          <t>沉积岩岩石学韩超 (12周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4236,7 +4268,7 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4252,17 +4284,17 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4298,7 +4330,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4319,19 +4351,19 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
+          <t>数学物理方程王德营 (8-12,14-19周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4354,7 +4386,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4426,14 +4458,14 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4531,7 +4563,7 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>测井地质学杨思通,张涛 (4-10,12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -4597,7 +4629,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4614,7 +4646,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-19周) 机械设计制造及其自动化2021-3-4</t>
+          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4627,7 +4659,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4635,11 +4667,7 @@
           <t>有限元方法刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
@@ -4686,7 +4714,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4733,7 +4761,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>机械原理（A）魏军英 (5-7,9-15周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -4775,7 +4803,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5036,7 +5064,11 @@
           <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -5050,7 +5082,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -5166,7 +5198,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5331,11 +5363,7 @@
           <t>过程装备控制技术及应用陈广庆 (11-18周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -5426,11 +5454,7 @@
           <t>物理化学滕弘霓 (8-17周) 环境工程2020-1-4</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>安全工程专业导论孔彪 (12-19周) 安全工程2021-4</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
@@ -5439,11 +5463,7 @@
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>安全工程专业导论孔彪 (12-19周) 安全工程2021-5</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
@@ -5482,18 +5502,10 @@
           <t>材料成形设备王翠香 (8-15周) 材料成型及控制工程2018-1-2</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -5538,11 +5550,7 @@
           <t>专业英语张军建,郑雪 (12-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -5567,12 +5575,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5593,17 +5601,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
+          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -5619,12 +5627,12 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
+          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5713,7 +5721,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
+          <t>材料科学基础张芬 (7-12,14-16周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -5856,7 +5864,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>空间数据库张蕾 (11-18周) 地理信息科学2020-3</t>
+          <t>空间数据库张蕾 (12-18周) 地理信息科学2020-3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -5939,7 +5947,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5952,7 +5960,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5965,7 +5973,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5978,7 +5986,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -6055,7 +6063,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -6065,11 +6073,7 @@
           <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
@@ -6266,7 +6270,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>普通化学（B）唐尧基 (12-19周) 机械设计制造及其自动化2021-2</t>
+          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -6341,7 +6345,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>机器人技术高魁东,张明辉 (9-16周) 机械设计制造及其自动化2018-1-5</t>
+          <t>机器人技术高魁东,张明辉 (9-12,14-16周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -6380,7 +6384,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="U59" t="inlineStr"/>
@@ -6397,7 +6401,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr"/>
@@ -6450,7 +6454,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6465,11 +6469,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6526,7 +6526,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6539,7 +6539,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -6552,7 +6552,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6565,7 +6565,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -6620,7 +6620,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6645,11 +6645,7 @@
           <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
@@ -6818,7 +6814,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6839,12 +6835,12 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -6856,7 +6852,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -6908,7 +6904,11 @@
           <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-1-3</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
+          <t>数据库原理与应用朱红春 (12,14-16周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7001,7 +7001,11 @@
           <t>水文地球化学任加国 (9-19周) 水文与水资源工程2019-1-2</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>数据库原理与应用朱红春 (12周) 遥感科学与技术2018-1-3</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -7091,7 +7095,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -7108,7 +7112,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -7219,7 +7223,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -7269,12 +7273,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-4-6</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-1-3</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -7302,9 +7306,21 @@
           <t>数值分析与计算方法周康 (12-19周) 工程力学2020-1-2</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）王明燕 (12周) 采矿工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）王明燕 (12周) 采矿工程2020-4-6</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
@@ -7313,12 +7329,12 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-4-6</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-1-3</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="U69" t="inlineStr"/>
@@ -7494,7 +7510,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
+          <t>水灾害防治魏久传 (6-12周) 水文与水资源工程2018-2</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -7571,11 +7587,7 @@
           <t>水文地质与工程地质学高宗军,张彧齐 (9-14周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
           <t>矿相学辛未 (4-12周) 资源勘查工程2018-1-3</t>
@@ -7670,7 +7682,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -7678,7 +7690,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7872,19 +7884,19 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化学软件应用技术高猛 (12-19周) 应用化学2018-1-3</t>
+          <t>化学软件应用技术高猛 (12-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -7903,7 +7915,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -7911,7 +7923,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -7936,7 +7948,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-19周) 新能源材料与器件2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7953,7 +7965,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械张同环 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7972,14 +7984,14 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-19周) 材料化学2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-19周) 新能源材料与器件2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7997,7 +8009,7 @@
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-19周) 材料化学2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -8178,16 +8190,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-513室</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+          <t>J14-512室</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -8196,14 +8224,38 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
@@ -8211,16 +8263,8 @@
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
-      <c r="AH79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
@@ -8231,17 +8275,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-512室</t>
+          <t>J14-514室</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -8249,52 +8293,68 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+          <t>室内设计（一）胡永胜 (12-14周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+          <t>室内设计（一）刘伟 (12-14周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr"/>
@@ -8316,88 +8376,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J14-514室</t>
+          <t>J14-516室</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-14周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-14周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
@@ -8417,15 +8425,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-524室</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -8434,12 +8446,24 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
@@ -8466,19 +8490,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-536室</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -8486,25 +8502,25 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>专业导论(双语)张琳等 (9-16周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -8531,34 +8547,42 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-536室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+          <t>J14-540室</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>专业导论(双语)张琳等 (9-16周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
@@ -8566,8 +8590,16 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
@@ -8588,60 +8620,64 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (8-15周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
@@ -8661,66 +8697,98 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr"/>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>海洋地球物理学支鹏遥 (9-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
@@ -8732,111 +8800,6 @@
       <c r="AJ86" t="inlineStr"/>
       <c r="AK86" t="inlineStr"/>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>海洋地球物理学支鹏遥 (9-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
-      <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr"/>
-      <c r="AH87" t="inlineStr"/>
-      <c r="AI87" t="inlineStr"/>
-      <c r="AJ87" t="inlineStr"/>
-      <c r="AK87" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/12.xlsx
+++ b/excel/12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK103"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,7 +897,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>流体力学辛林 (9-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1220,12 +1220,12 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1427,19 +1427,19 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2015,16 +2015,8 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>地理建模原理与方法刘羽 (4-12周) 地理信息科学2019-1</t>
@@ -2193,11 +2185,7 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
@@ -2227,11 +2215,7 @@
           <t>工程材料姜兰越,刘培坤 (9,12-18周) 智能制造工程2020-1-2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17双周) 机械设计制造及其自动化2020-2-3</t>
@@ -2248,11 +2232,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2273,11 +2253,7 @@
           <t>工程材料姜兰越,刘培坤 (9,12-18周) 智能制造工程2020-1-2</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -2314,11 +2290,7 @@
           <t>机械振动与噪声控制牟鸣飞 (9-16周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>计算机程序设计基础（C语言）高峰 (11-16周) 机械设计制造及其自动化2021-5</t>
@@ -2329,11 +2301,7 @@
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2372,16 +2340,8 @@
           <t>微观经济学(A)陈爱萍 (8-17周) 会计学2021-2</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>微机原理及应用武洪恩 (4-13周) 机械设计制造及其自动化2020-5-6</t>
@@ -2423,7 +2383,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2454,7 +2414,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2462,7 +2422,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2524,7 +2484,11 @@
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>遥感图像解译黄珏 (9-15周) 遥感科学与技术2020-1-3</t>
@@ -2797,11 +2761,7 @@
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -2850,11 +2810,7 @@
           <t>机器人技术高魁东 (6-14周) 机械电子工程2019-3-4</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
@@ -2876,11 +2832,7 @@
           <t>机器人技术高魁东 (6-14周) 机械电子工程2019-3-4</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -3259,7 +3211,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+          <t>电子技术仉毅 (1,3-6,10-13周) 机械电子工程2020-5-6</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3512,16 +3464,8 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
@@ -3546,11 +3490,7 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
@@ -3584,11 +3524,7 @@
         </is>
       </c>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3696,11 +3632,7 @@
           <t>电子技术吴清收 (1-6,10-14周) 机械电子工程2020-3-4</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -3722,41 +3654,25 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+          <t>电子技术吴清收 (1,3-6,10-13周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -4307,7 +4223,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4504,7 +4420,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -4575,20 +4491,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -4643,7 +4551,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4886,7 +4794,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4931,7 +4839,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -5477,7 +5385,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5504,7 +5412,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -5570,7 +5478,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
+          <t>Python程序设计施剑 (10-14周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5608,12 +5516,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
+          <t>Python程序设计施剑 (10-14周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>流体力学辛林 (6-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5647,7 +5555,11 @@
           <t>激光遥感宿殿鹏 (7-14周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Python程序设计施剑 (11-13周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
@@ -5725,7 +5637,11 @@
           <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Python程序设计施剑 (11-13周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr">
         <is>
           <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
@@ -6615,7 +6531,11 @@
           <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (9-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr">
         <is>
           <t>马克思主义基本原理李岩 (1-12周) 新能源材料与器件2020-1-2班,材料化学2020-1-2</t>
@@ -6897,7 +6817,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>数据挖掘刘彤 (7-14周) 采矿工程（智能开采方向）2019-1-2</t>
+          <t>数据挖掘刘彤 (8-14周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7485,7 +7405,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -8043,49 +7963,93 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-523室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)谢鲲 (12-16周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+          <t>J14-514室</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)谢鲲 (12-16周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)谢鲲 (12-16周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-12周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>金属材料学姚树玉 (10-16周) 金属材料工程2019-4</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (12-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
@@ -8104,93 +8068,57 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-12周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）李妍 (12-13周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>中国画孟鸣 (12-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>形态构成设计（一）李妍 (12-13周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
@@ -8209,56 +8137,80 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-531室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
+          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）李妍 (12-13周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t>形态构成设计（一）李妍 (12-13周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr"/>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -8278,81 +8230,57 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-531室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
-        </is>
-      </c>
+          <t>J14-520室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>构成设计Ⅰ宋美音 (12周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr"/>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr"/>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
@@ -8371,57 +8299,69 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-520室</t>
+          <t>J14-533室</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>构成设计Ⅰ宋美音 (12周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+          <t>形势与政策（4-4）张洋 (9-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
@@ -8440,64 +8380,48 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-533室</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
+          <t>J14-535室</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>形势与政策（4-4）张洋 (9-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr"/>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
@@ -8521,28 +8445,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-535室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -8555,17 +8475,25 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
         </is>
       </c>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
@@ -8586,53 +8514,53 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr">
         <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
+          <t>形态构成设计（一）许士朋 (12-13周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
+          <t>形态构成设计（一）许士朋 (12-13周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr"/>
@@ -8655,7 +8583,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-532室</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -8663,16 +8591,8 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -8685,23 +8605,23 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
@@ -8724,22 +8644,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>J14-530室</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>J14-538室</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12周) 产品设计2021-2</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -8752,27 +8680,27 @@
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）许士朋 (12-13周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）许士朋 (12-13周) 环境设计2021-1</t>
-        </is>
-      </c>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
@@ -8793,7 +8721,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>J14-532室</t>
+          <t>J14-540室</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -8812,26 +8740,30 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr"/>
@@ -8854,64 +8786,72 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J14-538室</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
-        </is>
-      </c>
+          <t>J14-525室</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>设计色彩李宗源 (12周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械孟昭胜 (12-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
-        </is>
-      </c>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
         <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+          <t>流体力学与流体机械孟昭胜 (12-15周) 采矿工程（宋振骐班）2020</t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
@@ -8931,7 +8871,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -8939,44 +8879,56 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr"/>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
+        </is>
+      </c>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
@@ -8996,40 +8948,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械孟昭胜 (12-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
@@ -9037,31 +8989,23 @@
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械孟昭胜 (12-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
@@ -9081,64 +9025,52 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-509室</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
+      <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
@@ -9158,63 +9090,59 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>J14-521室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr"/>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
+        </is>
+      </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
@@ -9235,41 +9163,73 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>J14-509室</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
+        </is>
+      </c>
       <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr">
         <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr"/>
@@ -9292,7 +9252,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>J14-332室</t>
+          <t>J14-515室</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -9300,51 +9260,35 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
-        </is>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
+      <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
@@ -9359,152 +9303,6 @@
       <c r="AJ101" t="inlineStr"/>
       <c r="AK101" t="inlineStr"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>J14-519室</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
-      <c r="AF102" t="inlineStr"/>
-      <c r="AG102" t="inlineStr"/>
-      <c r="AH102" t="inlineStr"/>
-      <c r="AI102" t="inlineStr"/>
-      <c r="AJ102" t="inlineStr"/>
-      <c r="AK102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>J14-515室</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
-      <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
-      <c r="AF103" t="inlineStr"/>
-      <c r="AG103" t="inlineStr"/>
-      <c r="AH103" t="inlineStr"/>
-      <c r="AI103" t="inlineStr"/>
-      <c r="AJ103" t="inlineStr"/>
-      <c r="AK103" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
